--- a/public/public/master/obat/import_obat.xlsx
+++ b/public/public/master/obat/import_obat.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trading\public\public\master\obat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="21000" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+  <si>
+    <t>Data Barang</t>
+  </si>
   <si>
     <t>Wisnu Farma</t>
   </si>
@@ -46,6 +44,9 @@
     <t>Jenis Barang</t>
   </si>
   <si>
+    <t>Satuan</t>
+  </si>
+  <si>
     <t>Satuan Beli</t>
   </si>
   <si>
@@ -88,83 +89,110 @@
     <t>Harga Jual</t>
   </si>
   <si>
+    <t>ID Satuan 1</t>
+  </si>
+  <si>
+    <t>Satuan 1</t>
+  </si>
+  <si>
     <t>Konversi</t>
   </si>
   <si>
+    <t>ID Satuan 2</t>
+  </si>
+  <si>
+    <t>Satuan 2</t>
+  </si>
+  <si>
+    <t>ID Satuan 3</t>
+  </si>
+  <si>
+    <t>Satuan 3</t>
+  </si>
+  <si>
+    <t>ID Satuan 4</t>
+  </si>
+  <si>
+    <t>Satuan 4</t>
+  </si>
+  <si>
+    <t>ID Satuan 5</t>
+  </si>
+  <si>
+    <t>Satuan 5</t>
+  </si>
+  <si>
+    <t>Margin Bawah 1</t>
+  </si>
+  <si>
+    <t>Margin Atas 1</t>
+  </si>
+  <si>
+    <t>Harga Satuan 1</t>
+  </si>
+  <si>
+    <t>Margin Bawah 2</t>
+  </si>
+  <si>
+    <t>Margin Atas 2</t>
+  </si>
+  <si>
+    <t>Harga Satuan 2</t>
+  </si>
+  <si>
+    <t>Margin Bawah 3</t>
+  </si>
+  <si>
+    <t>Margin Atas 3</t>
+  </si>
+  <si>
+    <t>Harga Satuan 3</t>
+  </si>
+  <si>
+    <t>Margin Bawah 4</t>
+  </si>
+  <si>
+    <t>Margin Atas 4</t>
+  </si>
+  <si>
+    <t>Harga Satuan 4</t>
+  </si>
+  <si>
+    <t>Margin Bawah 5</t>
+  </si>
+  <si>
+    <t>Margin Atas 5</t>
+  </si>
+  <si>
+    <t>Harga Satuan 5</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
+    <t>kolom yang berwana kuning tidak perlu diubah</t>
+  </si>
+  <si>
+    <t>Bisa lebih dari 1 dengan pemisah titik koma (;)</t>
+  </si>
+  <si>
     <t>1 = Ya, 0 = Tidak</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>Bisa lebih dari 1 dengan pemisah titik koma (;)</t>
-  </si>
-  <si>
-    <t>Satuan 1</t>
-  </si>
-  <si>
-    <t>Satuan 2</t>
-  </si>
-  <si>
-    <t>Satuan 3</t>
-  </si>
-  <si>
-    <t>Satuan 4</t>
-  </si>
-  <si>
-    <t>Satuan 5</t>
-  </si>
-  <si>
-    <t>ID Satuan 1</t>
-  </si>
-  <si>
-    <t>ID Satuan 5</t>
-  </si>
-  <si>
-    <t>ID Satuan 4</t>
-  </si>
-  <si>
-    <t>ID Satuan 3</t>
-  </si>
-  <si>
-    <t>ID Satuan 2</t>
-  </si>
-  <si>
-    <t>Data Barang</t>
-  </si>
-  <si>
-    <t>kolom yang berwana kuning tidak perlu diubah</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t>Harga Satuan 1</t>
-  </si>
-  <si>
-    <t>Harga Satuan 2</t>
-  </si>
-  <si>
-    <t>Harga Satuan 3</t>
-  </si>
-  <si>
-    <t>Harga Satuan 4</t>
-  </si>
-  <si>
-    <t>Harga Satuan 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,10 +201,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,19 +235,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +396,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -244,34 +602,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -299,6 +629,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -311,70 +669,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -632,308 +1275,353 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="14.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="14.140625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="14.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="31.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="5" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="10" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="11" customWidth="1"/>
-    <col min="31" max="33" width="14.42578125" style="10" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="10" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" style="10" customWidth="1"/>
-    <col min="36" max="44" width="17.28515625" style="5" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="8.28571428571429" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.42857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.14285714285714" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.1428571428571" style="4" customWidth="1"/>
+    <col min="9" max="10" width="14.1428571428571" style="5" customWidth="1"/>
+    <col min="11" max="12" width="14.1428571428571" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.1428571428571" style="5" customWidth="1"/>
+    <col min="14" max="15" width="14.1428571428571" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.1428571428571" style="5" customWidth="1"/>
+    <col min="17" max="18" width="14.1428571428571" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.1428571428571" style="5" customWidth="1"/>
+    <col min="20" max="21" width="14.1428571428571" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.5714285714286" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.1428571428571" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.2857142857143" style="4" customWidth="1"/>
+    <col min="25" max="25" width="31.1428571428571" style="4" customWidth="1"/>
+    <col min="26" max="26" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="27" max="27" width="5.71428571428571" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.8571428571429" style="4" customWidth="1"/>
+    <col min="29" max="29" width="14.4285714285714" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.4285714285714" style="7" customWidth="1"/>
+    <col min="31" max="33" width="14.4285714285714" style="6" customWidth="1"/>
+    <col min="34" max="34" width="15.4285714285714" style="6" customWidth="1"/>
+    <col min="35" max="35" width="16.2857142857143" style="6" customWidth="1"/>
+    <col min="36" max="36" width="14" style="6" customWidth="1"/>
+    <col min="37" max="37" width="15" style="4" customWidth="1"/>
+    <col min="38" max="38" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="39" max="39" width="14" style="4" customWidth="1"/>
+    <col min="40" max="40" width="15" style="4" customWidth="1"/>
+    <col min="41" max="41" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="42" max="42" width="14" style="4" customWidth="1"/>
+    <col min="43" max="43" width="15" style="4" customWidth="1"/>
+    <col min="44" max="44" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="45" max="45" width="14" style="4" customWidth="1"/>
+    <col min="46" max="46" width="15" style="4" customWidth="1"/>
+    <col min="47" max="47" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="48" max="48" width="14" style="4" customWidth="1"/>
+    <col min="49" max="49" width="15" style="4" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:36">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4" spans="7:36">
+      <c r="G4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="21"/>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
+      <c r="AL6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:44">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:44">
-      <c r="G4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-    </row>
-    <row r="6" spans="1:44">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>44</v>
+    <row r="18" spans="35:35">
+      <c r="AI18" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AI5:AR5"/>
+    <mergeCell ref="G5:U5"/>
+    <mergeCell ref="AI5:AW5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -948,7 +1636,6 @@
     <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:U5"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
@@ -956,66 +1643,69 @@
     <mergeCell ref="AH5:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="38.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>